--- a/media/template/organisation_comittee_template.xlsx
+++ b/media/template/organisation_comittee_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\xiaoyu\learning_passport\templates\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\xiaoyu\learning_passport\media\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{207B6F54-4785-4D89-8F7B-900252603066}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6C967E-70EA-4106-B7FB-01EE1316893B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7908" xr2:uid="{CAC03538-E9FE-4727-B1D7-165F63A2ABAF}"/>
   </bookViews>
@@ -25,18 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Position</t>
-  </si>
-  <si>
-    <t>Year</t>
   </si>
   <si>
     <t>Name (Eng)</t>
   </si>
   <si>
-    <t>Name (Chi)</t>
+    <t>Matric No (UXXXXXXX)</t>
   </si>
 </sst>
 </file>
@@ -428,20 +425,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851947CC-E3E3-4EBF-8604-0B4B11D5A8C0}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D11"/>
+      <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,9 +449,6 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/media/template/organisation_comittee_template.xlsx
+++ b/media/template/organisation_comittee_template.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\xiaoyu\learning_passport\media\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6C967E-70EA-4106-B7FB-01EE1316893B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876139FC-EF6D-4CA2-99B1-FE6B3E026F4C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7908" xr2:uid="{CAC03538-E9FE-4727-B1D7-165F63A2ABAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179021" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Position</t>
-  </si>
-  <si>
-    <t>Name (Eng)</t>
   </si>
   <si>
     <t>Matric No (UXXXXXXX)</t>
@@ -425,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851947CC-E3E3-4EBF-8604-0B4B11D5A8C0}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C6"/>
+      <selection activeCell="B1" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,18 +436,16 @@
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>